--- a/VBA/INDEX MATCH.xlsx
+++ b/VBA/INDEX MATCH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Extra-Courses\VBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4006026F-DED5-4ED2-8429-D1C545FB6758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39679C1-D83F-45C8-8EAC-25C18923D524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A1A7D9B7-E5F1-4BBF-A2CC-7188EE6BB2D3}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Nombre</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>k</t>
+  </si>
+  <si>
+    <t>Index match con 2 condiciones</t>
   </si>
 </sst>
 </file>
@@ -243,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -252,6 +255,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -303,6 +307,177 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>563879</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>153680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="The INDEX MATCH formula to look up multiple criteria">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ABF432B-E138-440E-AE27-EAADEEBC11AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3642359" y="632460"/>
+          <a:ext cx="3552201" cy="1965960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>548641</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>586741</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>68437</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C73DD6-B2DE-455B-B937-6CBADC5DC283}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3627121" y="2968687"/>
+          <a:ext cx="5585460" cy="757350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>747183</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="Using INDEX / MATCH with IFNA function to trap N/A errors">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{163DA702-128B-4922-8D28-C3522F8F46A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7772400" y="563348"/>
+          <a:ext cx="4770543" cy="1996972"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -562,7 +737,7 @@
     <tableColumn id="1" xr3:uid="{20778508-5F71-44CA-816C-456F8854169E}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{96B4E380-8401-40AB-BE24-2A9A48807001}" name="Edad"/>
     <tableColumn id="5" xr3:uid="{686D5E4A-A902-488A-9A2B-B4FD51487351}" name="MesNac" dataDxfId="0">
-      <calculatedColumnFormula>INDEX(L$4:M$13,MATCH(A4,K$4:K$13,0),1)</calculatedColumnFormula>
+      <calculatedColumnFormula>INDEX($B$17:$B$26,MATCH(A4,$A$17:$A$26,0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -570,8 +745,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7EAF29B4-4841-4C8A-BDB3-243A49117668}" name="Tabla2" displayName="Tabla2" ref="K3:M13" totalsRowShown="0">
-  <autoFilter ref="K3:M13" xr:uid="{FE700774-3637-420F-B68C-2F4EA94A60DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7EAF29B4-4841-4C8A-BDB3-243A49117668}" name="Tabla2" displayName="Tabla2" ref="A16:C26" totalsRowShown="0">
+  <autoFilter ref="A16:C26" xr:uid="{FE700774-3637-420F-B68C-2F4EA94A60DC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{63B779F9-F97C-4FA5-A186-4F7408107B5B}" name="Id" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{E1A4D007-C872-4CBB-B6C1-1C8631D6DCFB}" name="Mes Nac"/>
@@ -878,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94135E25-2877-4EDD-9B3F-B58FEDDB235D}">
-  <dimension ref="A3:M14"/>
+  <dimension ref="A3:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -889,7 +1064,7 @@
     <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -902,17 +1077,11 @@
       <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="K3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -923,20 +1092,11 @@
         <v>10</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D13" si="0">INDEX(L$4:M$13,MATCH(A4,K$4:K$13,0),1)</f>
+        <f>INDEX($B$17:$B$26,MATCH(A4,$A$17:$A$26,0))</f>
         <v>Enero</v>
       </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -947,20 +1107,11 @@
         <v>9</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f>INDEX($B$17:$B$26,MATCH(A5,$A$17:$A$26,0))</f>
         <v>Febrero</v>
       </c>
-      <c r="K5" s="2">
-        <v>2</v>
-      </c>
-      <c r="L5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -971,20 +1122,11 @@
         <v>8</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f>INDEX($B$17:$B$26,MATCH(A6,$A$17:$A$26,0))</f>
         <v>Marzo</v>
       </c>
-      <c r="K6" s="1">
-        <v>3</v>
-      </c>
-      <c r="L6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -995,20 +1137,11 @@
         <v>7</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f>INDEX($B$17:$B$26,MATCH(A7,$A$17:$A$26,0))</f>
         <v>Abril</v>
       </c>
-      <c r="K7" s="2">
-        <v>4</v>
-      </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1019,20 +1152,11 @@
         <v>6</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f>INDEX($B$17:$B$26,MATCH(A8,$A$17:$A$26,0))</f>
         <v>Mayo</v>
       </c>
-      <c r="K8" s="1">
-        <v>5</v>
-      </c>
-      <c r="L8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1043,20 +1167,11 @@
         <v>5</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f>INDEX($B$17:$B$26,MATCH(A9,$A$17:$A$26,0))</f>
         <v>Junio</v>
       </c>
-      <c r="K9" s="2">
-        <v>6</v>
-      </c>
-      <c r="L9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1067,20 +1182,11 @@
         <v>4</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
+        <f>INDEX($B$17:$B$26,MATCH(A10,$A$17:$A$26,0))</f>
         <v>Julio</v>
       </c>
-      <c r="K10" s="1">
-        <v>7</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1091,20 +1197,11 @@
         <v>3</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
+        <f>INDEX($B$17:$B$26,MATCH(A11,$A$17:$A$26,0))</f>
         <v>Agosto</v>
       </c>
-      <c r="K11" s="2">
-        <v>8</v>
-      </c>
-      <c r="L11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1114,21 +1211,12 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
+      <c r="D12" s="6" t="str">
+        <f>INDEX($B$17:$B$26,MATCH(A12,$A$17:$A$26,0))</f>
         <v>Septiembre</v>
       </c>
-      <c r="K12" s="1">
-        <v>9</v>
-      </c>
-      <c r="L12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1139,20 +1227,11 @@
         <v>1</v>
       </c>
       <c r="D13" t="e">
-        <f t="shared" si="0"/>
+        <f>INDEX($B$17:$B$26,MATCH(A13,$A$17:$A$26,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="K13" s="2">
-        <v>11</v>
-      </c>
-      <c r="L13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1163,16 +1242,138 @@
         <v>11</v>
       </c>
       <c r="D14" s="5" t="str">
-        <f>INDEX(L$4:M$13,MATCH(A14,K$4:K$13,0),1)</f>
+        <f>INDEX($B$17:$B$26,MATCH(A14,$A$17:$A$26,0))</f>
         <v>Noviembre</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>11000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
